--- a/data/Stock_Index Price Data/Stock_Index_TR_price.xlsx
+++ b/data/Stock_Index Price Data/Stock_Index_TR_price.xlsx
@@ -5,21 +5,33 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Mutual fund_Global_JP_GC+CN+HK_Project\JP stock_MF_holdings_behavioral_backtest\results\Stock_Index Price Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Mutual fund_Global_JP_GC+CN+HK_Project\JP stock_MF_holdings_behavioral_backtest\data\Stock_Index Price Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1D488C-78A2-4A58-B1DC-2CC75011FE56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2F65C9-FC5F-4CE6-B206-B3CF937A1F66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Murata" sheetId="2" r:id="rId1"/>
     <sheet name="Sony" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Murata!$A$7:$B$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Murata!$A$7:$B$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sony!$A$7:$B$127</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -956,8 +968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1058,1685 +1070,1690 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>44104</v>
+        <v>40480</v>
       </c>
       <c r="B8" s="1">
-        <v>6773</v>
+        <v>1276.8</v>
       </c>
       <c r="D8" s="3">
-        <v>44104</v>
+        <v>40480</v>
       </c>
       <c r="E8" s="1">
-        <v>2536.14</v>
+        <v>1016.07</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>44074</v>
+        <v>40512</v>
       </c>
       <c r="B9" s="1">
-        <v>6229.2</v>
+        <v>1441.9</v>
       </c>
       <c r="D9" s="3">
-        <v>44074</v>
+        <v>40512</v>
       </c>
       <c r="E9" s="1">
-        <v>2503.59</v>
+        <v>1078.8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>44043</v>
+        <v>40542</v>
       </c>
       <c r="B10" s="1">
-        <v>6555.6</v>
+        <v>1605.5</v>
       </c>
       <c r="D10" s="3">
-        <v>44043</v>
+        <v>40543</v>
       </c>
       <c r="E10" s="1">
-        <v>2314.39</v>
+        <v>1127.33</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>44012</v>
+        <v>40574</v>
       </c>
       <c r="B11" s="1">
-        <v>6264.9</v>
+        <v>1755.1</v>
       </c>
       <c r="D11" s="3">
-        <v>44012</v>
+        <v>40574</v>
       </c>
       <c r="E11" s="1">
-        <v>2411.4499999999998</v>
+        <v>1141.52</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>43980</v>
+        <v>40602</v>
       </c>
       <c r="B12" s="1">
-        <v>5966.4</v>
+        <v>1715.6</v>
       </c>
       <c r="D12" s="3">
-        <v>43980</v>
+        <v>40602</v>
       </c>
       <c r="E12" s="1">
-        <v>2416.04</v>
+        <v>1193.5999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>43951</v>
+        <v>40633</v>
       </c>
       <c r="B13" s="1">
-        <v>5970.3</v>
+        <v>1705.5</v>
       </c>
       <c r="D13" s="3">
-        <v>43951</v>
+        <v>40633</v>
       </c>
       <c r="E13" s="1">
-        <v>2261.88</v>
+        <v>1102.75</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>43921</v>
+        <v>40661</v>
       </c>
       <c r="B14" s="1">
-        <v>5427.8</v>
+        <v>1665.7</v>
       </c>
       <c r="D14" s="3">
-        <v>43921</v>
+        <v>40662</v>
       </c>
       <c r="E14" s="1">
-        <v>2167.6</v>
+        <v>1080.54</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>43889</v>
+        <v>40694</v>
       </c>
       <c r="B15" s="1">
-        <v>5622.5</v>
+        <v>1455</v>
       </c>
       <c r="D15" s="3">
-        <v>43889</v>
+        <v>40694</v>
       </c>
       <c r="E15" s="1">
-        <v>2305.7600000000002</v>
+        <v>1063.6400000000001</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>43861</v>
+        <v>40724</v>
       </c>
       <c r="B16" s="1">
-        <v>6219.1</v>
+        <v>1523.3</v>
       </c>
       <c r="D16" s="3">
-        <v>43861</v>
+        <v>40724</v>
       </c>
       <c r="E16" s="1">
-        <v>2569.77</v>
+        <v>1078.22</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>43829</v>
+        <v>40753</v>
       </c>
       <c r="B17" s="1">
-        <v>6629.9</v>
+        <v>1426.5</v>
       </c>
       <c r="D17" s="3">
-        <v>43830</v>
+        <v>40753</v>
       </c>
       <c r="E17" s="1">
-        <v>2625.91</v>
+        <v>1068.3</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>43798</v>
+        <v>40786</v>
       </c>
       <c r="B18" s="1">
-        <v>6234.8</v>
+        <v>1326.8</v>
       </c>
       <c r="D18" s="3">
-        <v>43798</v>
+        <v>40786</v>
       </c>
       <c r="E18" s="1">
-        <v>2588.4</v>
+        <v>978.79</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>43769</v>
+        <v>40816</v>
       </c>
       <c r="B19" s="1">
-        <v>5762.1</v>
+        <v>1217.0999999999999</v>
       </c>
       <c r="D19" s="3">
-        <v>43769</v>
+        <v>40816</v>
       </c>
       <c r="E19" s="1">
-        <v>2539.02</v>
+        <v>976.39</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>43738</v>
+        <v>40847</v>
       </c>
       <c r="B20" s="1">
-        <v>5095.8</v>
+        <v>1277.5999999999999</v>
       </c>
       <c r="D20" s="3">
-        <v>43738</v>
+        <v>40847</v>
       </c>
       <c r="E20" s="1">
-        <v>2418.29</v>
+        <v>980.14</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>43707</v>
+        <v>40877</v>
       </c>
       <c r="B21" s="1">
-        <v>4343</v>
+        <v>1286.3</v>
       </c>
       <c r="D21" s="3">
-        <v>43707</v>
+        <v>40877</v>
       </c>
       <c r="E21" s="1">
-        <v>2280.58</v>
+        <v>934.53</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>43677</v>
+        <v>40907</v>
       </c>
       <c r="B22" s="1">
-        <v>4717.1000000000004</v>
+        <v>1139.4000000000001</v>
       </c>
       <c r="D22" s="3">
-        <v>43677</v>
+        <v>40907</v>
       </c>
       <c r="E22" s="1">
-        <v>2360.1799999999998</v>
+        <v>935.71</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>43644</v>
+        <v>40939</v>
       </c>
       <c r="B23" s="1">
-        <v>4714.1000000000004</v>
+        <v>1257.5</v>
       </c>
       <c r="D23" s="3">
-        <v>43644</v>
+        <v>40939</v>
       </c>
       <c r="E23" s="1">
-        <v>2338.89</v>
+        <v>969.99</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>43616</v>
+        <v>40968</v>
       </c>
       <c r="B24" s="1">
-        <v>4582.6000000000004</v>
+        <v>1395.7</v>
       </c>
       <c r="D24" s="3">
-        <v>43616</v>
+        <v>40968</v>
       </c>
       <c r="E24" s="1">
-        <v>2275.96</v>
+        <v>1074.0899999999999</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>43581</v>
+        <v>40998</v>
       </c>
       <c r="B25" s="1">
-        <v>5805</v>
+        <v>1427</v>
       </c>
       <c r="D25" s="3">
-        <v>43585</v>
+        <v>40998</v>
       </c>
       <c r="E25" s="1">
-        <v>2434.8200000000002</v>
+        <v>1109.28</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>43553</v>
+        <v>41026</v>
       </c>
       <c r="B26" s="1">
-        <v>5368.7</v>
+        <v>1336.8</v>
       </c>
       <c r="D26" s="3">
-        <v>43553</v>
+        <v>41029</v>
       </c>
       <c r="E26" s="1">
-        <v>2395.21</v>
+        <v>1044.27</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>43524</v>
+        <v>41060</v>
       </c>
       <c r="B27" s="1">
-        <v>5576.8</v>
+        <v>1184.0999999999999</v>
       </c>
       <c r="D27" s="3">
-        <v>43524</v>
+        <v>41060</v>
       </c>
       <c r="E27" s="1">
-        <v>2393.08</v>
+        <v>934.25</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>43496</v>
+        <v>41089</v>
       </c>
       <c r="B28" s="1">
-        <v>4963.6000000000004</v>
+        <v>1208.8</v>
       </c>
       <c r="D28" s="3">
-        <v>43496</v>
+        <v>41089</v>
       </c>
       <c r="E28" s="1">
-        <v>2332.52</v>
+        <v>1001.27</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>43462</v>
+        <v>41121</v>
       </c>
       <c r="B29" s="1">
-        <v>4813.8999999999996</v>
+        <v>1141.9000000000001</v>
       </c>
       <c r="D29" s="3">
-        <v>43465</v>
+        <v>41121</v>
       </c>
       <c r="E29" s="1">
-        <v>2223.11</v>
+        <v>957.42</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>43434</v>
+        <v>41152</v>
       </c>
       <c r="B30" s="1">
-        <v>5573.5</v>
+        <v>1123</v>
       </c>
       <c r="D30" s="3">
-        <v>43434</v>
+        <v>41152</v>
       </c>
       <c r="E30" s="1">
-        <v>2475.92</v>
+        <v>951.73</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>43404</v>
+        <v>41180</v>
       </c>
       <c r="B31" s="1">
-        <v>5525.3</v>
+        <v>1222.9000000000001</v>
       </c>
       <c r="D31" s="3">
-        <v>43404</v>
+        <v>41180</v>
       </c>
       <c r="E31" s="1">
-        <v>2444.11</v>
+        <v>968.82</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>43371</v>
+        <v>41213</v>
       </c>
       <c r="B32" s="1">
-        <v>5621.8</v>
+        <v>1142</v>
       </c>
       <c r="D32" s="3">
-        <v>43371</v>
+        <v>41213</v>
       </c>
       <c r="E32" s="1">
-        <v>2698.09</v>
+        <v>975.3</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>43343</v>
+        <v>41243</v>
       </c>
       <c r="B33" s="1">
-        <v>6127.1</v>
+        <v>1374.5</v>
       </c>
       <c r="D33" s="3">
-        <v>43343</v>
+        <v>41243</v>
       </c>
       <c r="E33" s="1">
-        <v>2556.25</v>
+        <v>1026.76</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>43312</v>
+        <v>41271</v>
       </c>
       <c r="B34" s="1">
-        <v>6227.7</v>
+        <v>1486.3</v>
       </c>
       <c r="D34" s="3">
-        <v>43312</v>
+        <v>41274</v>
       </c>
       <c r="E34" s="1">
-        <v>2581.96</v>
+        <v>1130.8699999999999</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>43280</v>
+        <v>41305</v>
       </c>
       <c r="B35" s="1">
-        <v>5946.7</v>
+        <v>1657.1</v>
       </c>
       <c r="D35" s="3">
-        <v>43280</v>
+        <v>41305</v>
       </c>
       <c r="E35" s="1">
-        <v>2548.7800000000002</v>
+        <v>1236.75</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>43251</v>
+        <v>41333</v>
       </c>
       <c r="B36" s="1">
-        <v>5169</v>
+        <v>1757.1</v>
       </c>
       <c r="D36" s="3">
-        <v>43251</v>
+        <v>41333</v>
       </c>
       <c r="E36" s="1">
-        <v>2568.21</v>
+        <v>1283.78</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>43217</v>
+        <v>41362</v>
       </c>
       <c r="B37" s="1">
-        <v>4423.3</v>
+        <v>2078.5</v>
       </c>
       <c r="D37" s="3">
-        <v>43220</v>
+        <v>41362</v>
       </c>
       <c r="E37" s="1">
-        <v>2611.85</v>
+        <v>1373.53</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>43189</v>
+        <v>41394</v>
       </c>
       <c r="B38" s="1">
-        <v>4653.2</v>
+        <v>2351.3000000000002</v>
       </c>
       <c r="D38" s="3">
-        <v>43189</v>
+        <v>41394</v>
       </c>
       <c r="E38" s="1">
-        <v>2522.2600000000002</v>
+        <v>1546.69</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>43159</v>
+        <v>41425</v>
       </c>
       <c r="B39" s="1">
-        <v>4742.5</v>
+        <v>2300.9</v>
       </c>
       <c r="D39" s="3">
-        <v>43159</v>
+        <v>41425</v>
       </c>
       <c r="E39" s="1">
-        <v>2574.87</v>
+        <v>1507.8</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>43131</v>
+        <v>41453</v>
       </c>
       <c r="B40" s="1">
-        <v>5098.5</v>
+        <v>2238.6</v>
       </c>
       <c r="D40" s="3">
-        <v>43131</v>
+        <v>41453</v>
       </c>
       <c r="E40" s="1">
-        <v>2673.82</v>
+        <v>1507.7</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>43098</v>
+        <v>41486</v>
       </c>
       <c r="B41" s="1">
-        <v>4785.2</v>
+        <v>1998.4</v>
       </c>
       <c r="D41" s="3">
-        <v>43098</v>
+        <v>41486</v>
       </c>
       <c r="E41" s="1">
-        <v>2645.77</v>
+        <v>1504.94</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>43069</v>
+        <v>41516</v>
       </c>
       <c r="B42" s="1">
-        <v>4799.3999999999996</v>
+        <v>2001.4</v>
       </c>
       <c r="D42" s="3">
-        <v>43069</v>
+        <v>41516</v>
       </c>
       <c r="E42" s="1">
-        <v>2604.86</v>
+        <v>1471.25</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>43039</v>
+        <v>41547</v>
       </c>
       <c r="B43" s="1">
-        <v>5598.5</v>
+        <v>2238.6</v>
       </c>
       <c r="D43" s="3">
-        <v>43039</v>
+        <v>41547</v>
       </c>
       <c r="E43" s="1">
-        <v>2566.81</v>
+        <v>1598.95</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>43007</v>
+        <v>41578</v>
       </c>
       <c r="B44" s="1">
-        <v>5234.6000000000004</v>
+        <v>2352.1999999999998</v>
       </c>
       <c r="D44" s="3">
-        <v>43007</v>
+        <v>41578</v>
       </c>
       <c r="E44" s="1">
-        <v>2434.16</v>
+        <v>1599.21</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>42978</v>
+        <v>41607</v>
       </c>
       <c r="B45" s="1">
-        <v>5286.6</v>
+        <v>2633.1</v>
       </c>
       <c r="D45" s="3">
-        <v>42978</v>
+        <v>41607</v>
       </c>
       <c r="E45" s="1">
-        <v>2332.8000000000002</v>
+        <v>1685.49</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>42947</v>
+        <v>41638</v>
       </c>
       <c r="B46" s="1">
-        <v>5393.3</v>
+        <v>2791.5</v>
       </c>
       <c r="D46" s="3">
-        <v>42947</v>
+        <v>41639</v>
       </c>
       <c r="E46" s="1">
-        <v>2333.91</v>
+        <v>1746.17</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>42916</v>
+        <v>41670</v>
       </c>
       <c r="B47" s="1">
-        <v>5358.8</v>
+        <v>2870.4</v>
       </c>
       <c r="D47" s="3">
-        <v>42916</v>
+        <v>41670</v>
       </c>
       <c r="E47" s="1">
-        <v>2324.06</v>
+        <v>1636.79</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>42886</v>
+        <v>41698</v>
       </c>
       <c r="B48" s="1">
-        <v>4818.8</v>
+        <v>2896.4</v>
       </c>
       <c r="D48" s="3">
-        <v>42886</v>
+        <v>41698</v>
       </c>
       <c r="E48" s="1">
-        <v>2257.27</v>
+        <v>1625.22</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>42853</v>
+        <v>41729</v>
       </c>
       <c r="B49" s="1">
-        <v>4691.7</v>
+        <v>2930.6</v>
       </c>
       <c r="D49" s="3">
-        <v>42853</v>
+        <v>41729</v>
       </c>
       <c r="E49" s="1">
-        <v>2204.5100000000002</v>
+        <v>1628.52</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>42825</v>
+        <v>41759</v>
       </c>
       <c r="B50" s="1">
-        <v>4971.1000000000004</v>
+        <v>2558.9</v>
       </c>
       <c r="D50" s="3">
-        <v>42825</v>
+        <v>41759</v>
       </c>
       <c r="E50" s="1">
-        <v>2176.87</v>
+        <v>1573.78</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>42794</v>
+        <v>41789</v>
       </c>
       <c r="B51" s="1">
-        <v>5034.8</v>
+        <v>2595.9</v>
       </c>
       <c r="D51" s="3">
-        <v>42794</v>
+        <v>41789</v>
       </c>
       <c r="E51" s="1">
-        <v>2189.71</v>
+        <v>1626.62</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>42766</v>
+        <v>41820</v>
       </c>
       <c r="B52" s="1">
-        <v>4755.8</v>
+        <v>2854.2</v>
       </c>
       <c r="D52" s="3">
-        <v>42766</v>
+        <v>41820</v>
       </c>
       <c r="E52" s="1">
-        <v>2169.23</v>
+        <v>1712.3</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>42734</v>
+        <v>41851</v>
       </c>
       <c r="B53" s="1">
-        <v>4878.8999999999996</v>
+        <v>2986.9</v>
       </c>
       <c r="D53" s="3">
-        <v>42734</v>
+        <v>41851</v>
       </c>
       <c r="E53" s="1">
-        <v>2164.5700000000002</v>
+        <v>1748.81</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>42704</v>
+        <v>41880</v>
       </c>
       <c r="B54" s="1">
-        <v>4808.8</v>
+        <v>2990.5</v>
       </c>
       <c r="D54" s="3">
-        <v>42704</v>
+        <v>41880</v>
       </c>
       <c r="E54" s="1">
-        <v>2091.9499999999998</v>
+        <v>1733.76</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>42674</v>
+        <v>41912</v>
       </c>
       <c r="B55" s="1">
-        <v>4573.3999999999996</v>
+        <v>3778.7</v>
       </c>
       <c r="D55" s="3">
-        <v>42674</v>
+        <v>41912</v>
       </c>
       <c r="E55" s="1">
-        <v>1983.08</v>
+        <v>1811.98</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>42643</v>
+        <v>41943</v>
       </c>
       <c r="B56" s="1">
-        <v>4062.1</v>
+        <v>3698.4</v>
       </c>
       <c r="D56" s="3">
-        <v>42643</v>
+        <v>41943</v>
       </c>
       <c r="E56" s="1">
-        <v>1883.03</v>
+        <v>1822.08</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>42613</v>
+        <v>41971</v>
       </c>
       <c r="B57" s="1">
-        <v>4298.6000000000004</v>
+        <v>3886.2</v>
       </c>
       <c r="D57" s="3">
-        <v>42613</v>
+        <v>41971</v>
       </c>
       <c r="E57" s="1">
-        <v>1876.6</v>
+        <v>1926.93</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>42580</v>
+        <v>42003</v>
       </c>
       <c r="B58" s="1">
-        <v>3964.7</v>
+        <v>4015</v>
       </c>
       <c r="D58" s="3">
-        <v>42580</v>
+        <v>42004</v>
       </c>
       <c r="E58" s="1">
-        <v>1866.36</v>
+        <v>1925.54</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>42551</v>
+        <v>42034</v>
       </c>
       <c r="B59" s="1">
-        <v>3518</v>
+        <v>3884.7</v>
       </c>
       <c r="D59" s="3">
-        <v>42551</v>
+        <v>42034</v>
       </c>
       <c r="E59" s="1">
-        <v>1757.69</v>
+        <v>1935.98</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>42521</v>
+        <v>42062</v>
       </c>
       <c r="B60" s="1">
-        <v>4003.3</v>
+        <v>4468</v>
       </c>
       <c r="D60" s="3">
-        <v>42521</v>
+        <v>42062</v>
       </c>
       <c r="E60" s="1">
-        <v>1944.06</v>
+        <v>2085.33</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <v>42488</v>
+        <v>42094</v>
       </c>
       <c r="B61" s="1">
-        <v>4573.7</v>
+        <v>5040.3</v>
       </c>
       <c r="D61" s="3">
-        <v>42489</v>
+        <v>42094</v>
       </c>
       <c r="E61" s="1">
-        <v>1888.68</v>
+        <v>2128.3000000000002</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <v>42460</v>
+        <v>42124</v>
       </c>
       <c r="B62" s="1">
-        <v>4195</v>
+        <v>5172.8999999999996</v>
       </c>
       <c r="D62" s="3">
-        <v>42460</v>
+        <v>42124</v>
       </c>
       <c r="E62" s="1">
-        <v>1898.02</v>
+        <v>2196.84</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <v>42429</v>
+        <v>42153</v>
       </c>
       <c r="B63" s="1">
-        <v>4161</v>
+        <v>6168.2</v>
       </c>
       <c r="D63" s="3">
-        <v>42429</v>
+        <v>42153</v>
       </c>
       <c r="E63" s="1">
-        <v>1810.63</v>
+        <v>2308.46</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
-        <v>42398</v>
+        <v>42185</v>
       </c>
       <c r="B64" s="1">
-        <v>4200.8999999999996</v>
+        <v>6511.1</v>
       </c>
       <c r="D64" s="3">
-        <v>42398</v>
+        <v>42185</v>
       </c>
       <c r="E64" s="1">
-        <v>1997.22</v>
+        <v>2252.5300000000002</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <v>42368</v>
+        <v>42216</v>
       </c>
       <c r="B65" s="1">
-        <v>5389.5</v>
+        <v>5608.8</v>
       </c>
       <c r="D65" s="3">
-        <v>42369</v>
+        <v>42216</v>
       </c>
       <c r="E65" s="1">
-        <v>2157.7800000000002</v>
+        <v>2292.89</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
-        <v>42338</v>
+        <v>42247</v>
       </c>
       <c r="B66" s="1">
-        <v>5858.9</v>
+        <v>5349.7</v>
       </c>
       <c r="D66" s="3">
-        <v>42338</v>
+        <v>42247</v>
       </c>
       <c r="E66" s="1">
-        <v>2200.15</v>
+        <v>2124.21</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <v>42307</v>
+        <v>42277</v>
       </c>
       <c r="B67" s="1">
-        <v>5323.6</v>
+        <v>4714.7</v>
       </c>
       <c r="D67" s="3">
-        <v>42307</v>
+        <v>42277</v>
       </c>
       <c r="E67" s="1">
-        <v>2169.38</v>
+        <v>1964.62</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
-        <v>42277</v>
+        <v>42307</v>
       </c>
       <c r="B68" s="1">
-        <v>4714.7</v>
+        <v>5323.6</v>
       </c>
       <c r="D68" s="3">
-        <v>42277</v>
+        <v>42307</v>
       </c>
       <c r="E68" s="1">
-        <v>1964.62</v>
+        <v>2169.38</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <v>42247</v>
+        <v>42338</v>
       </c>
       <c r="B69" s="1">
-        <v>5349.7</v>
+        <v>5858.9</v>
       </c>
       <c r="D69" s="3">
-        <v>42247</v>
+        <v>42338</v>
       </c>
       <c r="E69" s="1">
-        <v>2124.21</v>
+        <v>2200.15</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
-        <v>42216</v>
+        <v>42368</v>
       </c>
       <c r="B70" s="1">
-        <v>5608.8</v>
+        <v>5389.5</v>
       </c>
       <c r="D70" s="3">
-        <v>42216</v>
+        <v>42369</v>
       </c>
       <c r="E70" s="1">
-        <v>2292.89</v>
+        <v>2157.7800000000002</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
-        <v>42185</v>
+        <v>42398</v>
       </c>
       <c r="B71" s="1">
-        <v>6511.1</v>
+        <v>4200.8999999999996</v>
       </c>
       <c r="D71" s="3">
-        <v>42185</v>
+        <v>42398</v>
       </c>
       <c r="E71" s="1">
-        <v>2252.5300000000002</v>
+        <v>1997.22</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
-        <v>42153</v>
+        <v>42429</v>
       </c>
       <c r="B72" s="1">
-        <v>6168.2</v>
+        <v>4161</v>
       </c>
       <c r="D72" s="3">
-        <v>42153</v>
+        <v>42429</v>
       </c>
       <c r="E72" s="1">
-        <v>2308.46</v>
+        <v>1810.63</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
-        <v>42124</v>
+        <v>42460</v>
       </c>
       <c r="B73" s="1">
-        <v>5172.8999999999996</v>
+        <v>4195</v>
       </c>
       <c r="D73" s="3">
-        <v>42124</v>
+        <v>42460</v>
       </c>
       <c r="E73" s="1">
-        <v>2196.84</v>
+        <v>1898.02</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
-        <v>42094</v>
+        <v>42488</v>
       </c>
       <c r="B74" s="1">
-        <v>5040.3</v>
+        <v>4573.7</v>
       </c>
       <c r="D74" s="3">
-        <v>42094</v>
+        <v>42489</v>
       </c>
       <c r="E74" s="1">
-        <v>2128.3000000000002</v>
+        <v>1888.68</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
-        <v>42062</v>
+        <v>42521</v>
       </c>
       <c r="B75" s="1">
-        <v>4468</v>
+        <v>4003.3</v>
       </c>
       <c r="D75" s="3">
-        <v>42062</v>
+        <v>42521</v>
       </c>
       <c r="E75" s="1">
-        <v>2085.33</v>
+        <v>1944.06</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <v>42034</v>
+        <v>42551</v>
       </c>
       <c r="B76" s="1">
-        <v>3884.7</v>
+        <v>3518</v>
       </c>
       <c r="D76" s="3">
-        <v>42034</v>
+        <v>42551</v>
       </c>
       <c r="E76" s="1">
-        <v>1935.98</v>
+        <v>1757.69</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
-        <v>42003</v>
+        <v>42580</v>
       </c>
       <c r="B77" s="1">
-        <v>4015</v>
+        <v>3964.7</v>
       </c>
       <c r="D77" s="3">
-        <v>42004</v>
+        <v>42580</v>
       </c>
       <c r="E77" s="1">
-        <v>1925.54</v>
+        <v>1866.36</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
-        <v>41971</v>
+        <v>42613</v>
       </c>
       <c r="B78" s="1">
-        <v>3886.2</v>
+        <v>4298.6000000000004</v>
       </c>
       <c r="D78" s="3">
-        <v>41971</v>
+        <v>42613</v>
       </c>
       <c r="E78" s="1">
-        <v>1926.93</v>
+        <v>1876.6</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
-        <v>41943</v>
+        <v>42643</v>
       </c>
       <c r="B79" s="1">
-        <v>3698.4</v>
+        <v>4062.1</v>
       </c>
       <c r="D79" s="3">
-        <v>41943</v>
+        <v>42643</v>
       </c>
       <c r="E79" s="1">
-        <v>1822.08</v>
+        <v>1883.03</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
-        <v>41912</v>
+        <v>42674</v>
       </c>
       <c r="B80" s="1">
-        <v>3778.7</v>
+        <v>4573.3999999999996</v>
       </c>
       <c r="D80" s="3">
-        <v>41912</v>
+        <v>42674</v>
       </c>
       <c r="E80" s="1">
-        <v>1811.98</v>
+        <v>1983.08</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
-        <v>41880</v>
+        <v>42704</v>
       </c>
       <c r="B81" s="1">
-        <v>2990.5</v>
+        <v>4808.8</v>
       </c>
       <c r="D81" s="3">
-        <v>41880</v>
+        <v>42704</v>
       </c>
       <c r="E81" s="1">
-        <v>1733.76</v>
+        <v>2091.9499999999998</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
-        <v>41851</v>
+        <v>42734</v>
       </c>
       <c r="B82" s="1">
-        <v>2986.9</v>
+        <v>4878.8999999999996</v>
       </c>
       <c r="D82" s="3">
-        <v>41851</v>
+        <v>42734</v>
       </c>
       <c r="E82" s="1">
-        <v>1748.81</v>
+        <v>2164.5700000000002</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
-        <v>41820</v>
+        <v>42766</v>
       </c>
       <c r="B83" s="1">
-        <v>2854.2</v>
+        <v>4755.8</v>
       </c>
       <c r="D83" s="3">
-        <v>41820</v>
+        <v>42766</v>
       </c>
       <c r="E83" s="1">
-        <v>1712.3</v>
+        <v>2169.23</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
-        <v>41789</v>
+        <v>42794</v>
       </c>
       <c r="B84" s="1">
-        <v>2595.9</v>
+        <v>5034.8</v>
       </c>
       <c r="D84" s="3">
-        <v>41789</v>
+        <v>42794</v>
       </c>
       <c r="E84" s="1">
-        <v>1626.62</v>
+        <v>2189.71</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
-        <v>41759</v>
+        <v>42825</v>
       </c>
       <c r="B85" s="1">
-        <v>2558.9</v>
+        <v>4971.1000000000004</v>
       </c>
       <c r="D85" s="3">
-        <v>41759</v>
+        <v>42825</v>
       </c>
       <c r="E85" s="1">
-        <v>1573.78</v>
+        <v>2176.87</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
-        <v>41729</v>
+        <v>42853</v>
       </c>
       <c r="B86" s="1">
-        <v>2930.6</v>
+        <v>4691.7</v>
       </c>
       <c r="D86" s="3">
-        <v>41729</v>
+        <v>42853</v>
       </c>
       <c r="E86" s="1">
-        <v>1628.52</v>
+        <v>2204.5100000000002</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
-        <v>41698</v>
+        <v>42886</v>
       </c>
       <c r="B87" s="1">
-        <v>2896.4</v>
+        <v>4818.8</v>
       </c>
       <c r="D87" s="3">
-        <v>41698</v>
+        <v>42886</v>
       </c>
       <c r="E87" s="1">
-        <v>1625.22</v>
+        <v>2257.27</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
-        <v>41670</v>
+        <v>42916</v>
       </c>
       <c r="B88" s="1">
-        <v>2870.4</v>
+        <v>5358.8</v>
       </c>
       <c r="D88" s="3">
-        <v>41670</v>
+        <v>42916</v>
       </c>
       <c r="E88" s="1">
-        <v>1636.79</v>
+        <v>2324.06</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
-        <v>41638</v>
+        <v>42947</v>
       </c>
       <c r="B89" s="1">
-        <v>2791.5</v>
+        <v>5393.3</v>
       </c>
       <c r="D89" s="3">
-        <v>41639</v>
+        <v>42947</v>
       </c>
       <c r="E89" s="1">
-        <v>1746.17</v>
+        <v>2333.91</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
-        <v>41607</v>
+        <v>42978</v>
       </c>
       <c r="B90" s="1">
-        <v>2633.1</v>
+        <v>5286.6</v>
       </c>
       <c r="D90" s="3">
-        <v>41607</v>
+        <v>42978</v>
       </c>
       <c r="E90" s="1">
-        <v>1685.49</v>
+        <v>2332.8000000000002</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
-        <v>41578</v>
+        <v>43007</v>
       </c>
       <c r="B91" s="1">
-        <v>2352.1999999999998</v>
+        <v>5234.6000000000004</v>
       </c>
       <c r="D91" s="3">
-        <v>41578</v>
+        <v>43007</v>
       </c>
       <c r="E91" s="1">
-        <v>1599.21</v>
+        <v>2434.16</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
-        <v>41547</v>
+        <v>43039</v>
       </c>
       <c r="B92" s="1">
-        <v>2238.6</v>
+        <v>5598.5</v>
       </c>
       <c r="D92" s="3">
-        <v>41547</v>
+        <v>43039</v>
       </c>
       <c r="E92" s="1">
-        <v>1598.95</v>
+        <v>2566.81</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
-        <v>41516</v>
+        <v>43069</v>
       </c>
       <c r="B93" s="1">
-        <v>2001.4</v>
+        <v>4799.3999999999996</v>
       </c>
       <c r="D93" s="3">
-        <v>41516</v>
+        <v>43069</v>
       </c>
       <c r="E93" s="1">
-        <v>1471.25</v>
+        <v>2604.86</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
-        <v>41486</v>
+        <v>43098</v>
       </c>
       <c r="B94" s="1">
-        <v>1998.4</v>
+        <v>4785.2</v>
       </c>
       <c r="D94" s="3">
-        <v>41486</v>
+        <v>43098</v>
       </c>
       <c r="E94" s="1">
-        <v>1504.94</v>
+        <v>2645.77</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
-        <v>41453</v>
+        <v>43131</v>
       </c>
       <c r="B95" s="1">
-        <v>2238.6</v>
+        <v>5098.5</v>
       </c>
       <c r="D95" s="3">
-        <v>41453</v>
+        <v>43131</v>
       </c>
       <c r="E95" s="1">
-        <v>1507.7</v>
+        <v>2673.82</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
-        <v>41425</v>
+        <v>43159</v>
       </c>
       <c r="B96" s="1">
-        <v>2300.9</v>
+        <v>4742.5</v>
       </c>
       <c r="D96" s="3">
-        <v>41425</v>
+        <v>43159</v>
       </c>
       <c r="E96" s="1">
-        <v>1507.8</v>
+        <v>2574.87</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
-        <v>41394</v>
+        <v>43189</v>
       </c>
       <c r="B97" s="1">
-        <v>2351.3000000000002</v>
+        <v>4653.2</v>
       </c>
       <c r="D97" s="3">
-        <v>41394</v>
+        <v>43189</v>
       </c>
       <c r="E97" s="1">
-        <v>1546.69</v>
+        <v>2522.2600000000002</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
-        <v>41362</v>
+        <v>43217</v>
       </c>
       <c r="B98" s="1">
-        <v>2078.5</v>
+        <v>4423.3</v>
       </c>
       <c r="D98" s="3">
-        <v>41362</v>
+        <v>43220</v>
       </c>
       <c r="E98" s="1">
-        <v>1373.53</v>
+        <v>2611.85</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
-        <v>41333</v>
+        <v>43251</v>
       </c>
       <c r="B99" s="1">
-        <v>1757.1</v>
+        <v>5169</v>
       </c>
       <c r="D99" s="3">
-        <v>41333</v>
+        <v>43251</v>
       </c>
       <c r="E99" s="1">
-        <v>1283.78</v>
+        <v>2568.21</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
-        <v>41305</v>
+        <v>43280</v>
       </c>
       <c r="B100" s="1">
-        <v>1657.1</v>
+        <v>5946.7</v>
       </c>
       <c r="D100" s="3">
-        <v>41305</v>
+        <v>43280</v>
       </c>
       <c r="E100" s="1">
-        <v>1236.75</v>
+        <v>2548.7800000000002</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
-        <v>41271</v>
+        <v>43312</v>
       </c>
       <c r="B101" s="1">
-        <v>1486.3</v>
+        <v>6227.7</v>
       </c>
       <c r="D101" s="3">
-        <v>41274</v>
+        <v>43312</v>
       </c>
       <c r="E101" s="1">
-        <v>1130.8699999999999</v>
+        <v>2581.96</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
-        <v>41243</v>
+        <v>43343</v>
       </c>
       <c r="B102" s="1">
-        <v>1374.5</v>
+        <v>6127.1</v>
       </c>
       <c r="D102" s="3">
-        <v>41243</v>
+        <v>43343</v>
       </c>
       <c r="E102" s="1">
-        <v>1026.76</v>
+        <v>2556.25</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
-        <v>41213</v>
+        <v>43371</v>
       </c>
       <c r="B103" s="1">
-        <v>1142</v>
+        <v>5621.8</v>
       </c>
       <c r="D103" s="3">
-        <v>41213</v>
+        <v>43371</v>
       </c>
       <c r="E103" s="1">
-        <v>975.3</v>
+        <v>2698.09</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
-        <v>41180</v>
+        <v>43404</v>
       </c>
       <c r="B104" s="1">
-        <v>1222.9000000000001</v>
+        <v>5525.3</v>
       </c>
       <c r="D104" s="3">
-        <v>41180</v>
+        <v>43404</v>
       </c>
       <c r="E104" s="1">
-        <v>968.82</v>
+        <v>2444.11</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
-        <v>41152</v>
+        <v>43434</v>
       </c>
       <c r="B105" s="1">
-        <v>1123</v>
+        <v>5573.5</v>
       </c>
       <c r="D105" s="3">
-        <v>41152</v>
+        <v>43434</v>
       </c>
       <c r="E105" s="1">
-        <v>951.73</v>
+        <v>2475.92</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
-        <v>41121</v>
+        <v>43462</v>
       </c>
       <c r="B106" s="1">
-        <v>1141.9000000000001</v>
+        <v>4813.8999999999996</v>
       </c>
       <c r="D106" s="3">
-        <v>41121</v>
+        <v>43465</v>
       </c>
       <c r="E106" s="1">
-        <v>957.42</v>
+        <v>2223.11</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
-        <v>41089</v>
+        <v>43496</v>
       </c>
       <c r="B107" s="1">
-        <v>1208.8</v>
+        <v>4963.6000000000004</v>
       </c>
       <c r="D107" s="3">
-        <v>41089</v>
+        <v>43496</v>
       </c>
       <c r="E107" s="1">
-        <v>1001.27</v>
+        <v>2332.52</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
-        <v>41060</v>
+        <v>43524</v>
       </c>
       <c r="B108" s="1">
-        <v>1184.0999999999999</v>
+        <v>5576.8</v>
       </c>
       <c r="D108" s="3">
-        <v>41060</v>
+        <v>43524</v>
       </c>
       <c r="E108" s="1">
-        <v>934.25</v>
+        <v>2393.08</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
-        <v>41026</v>
+        <v>43553</v>
       </c>
       <c r="B109" s="1">
-        <v>1336.8</v>
+        <v>5368.7</v>
       </c>
       <c r="D109" s="3">
-        <v>41029</v>
+        <v>43553</v>
       </c>
       <c r="E109" s="1">
-        <v>1044.27</v>
+        <v>2395.21</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
-        <v>40998</v>
+        <v>43581</v>
       </c>
       <c r="B110" s="1">
-        <v>1427</v>
+        <v>5805</v>
       </c>
       <c r="D110" s="3">
-        <v>40998</v>
+        <v>43585</v>
       </c>
       <c r="E110" s="1">
-        <v>1109.28</v>
+        <v>2434.8200000000002</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
-        <v>40968</v>
+        <v>43616</v>
       </c>
       <c r="B111" s="1">
-        <v>1395.7</v>
+        <v>4582.6000000000004</v>
       </c>
       <c r="D111" s="3">
-        <v>40968</v>
+        <v>43616</v>
       </c>
       <c r="E111" s="1">
-        <v>1074.0899999999999</v>
+        <v>2275.96</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
-        <v>40939</v>
+        <v>43644</v>
       </c>
       <c r="B112" s="1">
-        <v>1257.5</v>
+        <v>4714.1000000000004</v>
       </c>
       <c r="D112" s="3">
-        <v>40939</v>
+        <v>43644</v>
       </c>
       <c r="E112" s="1">
-        <v>969.99</v>
+        <v>2338.89</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
-        <v>40907</v>
+        <v>43677</v>
       </c>
       <c r="B113" s="1">
-        <v>1139.4000000000001</v>
+        <v>4717.1000000000004</v>
       </c>
       <c r="D113" s="3">
-        <v>40907</v>
+        <v>43677</v>
       </c>
       <c r="E113" s="1">
-        <v>935.71</v>
+        <v>2360.1799999999998</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
-        <v>40877</v>
+        <v>43707</v>
       </c>
       <c r="B114" s="1">
-        <v>1286.3</v>
+        <v>4343</v>
       </c>
       <c r="D114" s="3">
-        <v>40877</v>
+        <v>43707</v>
       </c>
       <c r="E114" s="1">
-        <v>934.53</v>
+        <v>2280.58</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
-        <v>40847</v>
+        <v>43738</v>
       </c>
       <c r="B115" s="1">
-        <v>1277.5999999999999</v>
+        <v>5095.8</v>
       </c>
       <c r="D115" s="3">
-        <v>40847</v>
+        <v>43738</v>
       </c>
       <c r="E115" s="1">
-        <v>980.14</v>
+        <v>2418.29</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
-        <v>40816</v>
+        <v>43769</v>
       </c>
       <c r="B116" s="1">
-        <v>1217.0999999999999</v>
+        <v>5762.1</v>
       </c>
       <c r="D116" s="3">
-        <v>40816</v>
+        <v>43769</v>
       </c>
       <c r="E116" s="1">
-        <v>976.39</v>
+        <v>2539.02</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
-        <v>40786</v>
+        <v>43798</v>
       </c>
       <c r="B117" s="1">
-        <v>1326.8</v>
+        <v>6234.8</v>
       </c>
       <c r="D117" s="3">
-        <v>40786</v>
+        <v>43798</v>
       </c>
       <c r="E117" s="1">
-        <v>978.79</v>
+        <v>2588.4</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
-        <v>40753</v>
+        <v>43829</v>
       </c>
       <c r="B118" s="1">
-        <v>1426.5</v>
+        <v>6629.9</v>
       </c>
       <c r="D118" s="3">
-        <v>40753</v>
+        <v>43830</v>
       </c>
       <c r="E118" s="1">
-        <v>1068.3</v>
+        <v>2625.91</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
-        <v>40724</v>
+        <v>43861</v>
       </c>
       <c r="B119" s="1">
-        <v>1523.3</v>
+        <v>6219.1</v>
       </c>
       <c r="D119" s="3">
-        <v>40724</v>
+        <v>43861</v>
       </c>
       <c r="E119" s="1">
-        <v>1078.22</v>
+        <v>2569.77</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
-        <v>40694</v>
+        <v>43889</v>
       </c>
       <c r="B120" s="1">
-        <v>1455</v>
+        <v>5622.5</v>
       </c>
       <c r="D120" s="3">
-        <v>40694</v>
+        <v>43889</v>
       </c>
       <c r="E120" s="1">
-        <v>1063.6400000000001</v>
+        <v>2305.7600000000002</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
-        <v>40661</v>
+        <v>43921</v>
       </c>
       <c r="B121" s="1">
-        <v>1665.7</v>
+        <v>5427.8</v>
       </c>
       <c r="D121" s="3">
-        <v>40662</v>
+        <v>43921</v>
       </c>
       <c r="E121" s="1">
-        <v>1080.54</v>
+        <v>2167.6</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
-        <v>40633</v>
+        <v>43951</v>
       </c>
       <c r="B122" s="1">
-        <v>1705.5</v>
+        <v>5970.3</v>
       </c>
       <c r="D122" s="3">
-        <v>40633</v>
+        <v>43951</v>
       </c>
       <c r="E122" s="1">
-        <v>1102.75</v>
+        <v>2261.88</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
-        <v>40602</v>
+        <v>43980</v>
       </c>
       <c r="B123" s="1">
-        <v>1715.6</v>
+        <v>5966.4</v>
       </c>
       <c r="D123" s="3">
-        <v>40602</v>
+        <v>43980</v>
       </c>
       <c r="E123" s="1">
-        <v>1193.5999999999999</v>
+        <v>2416.04</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
-        <v>40574</v>
+        <v>44012</v>
       </c>
       <c r="B124" s="1">
-        <v>1755.1</v>
+        <v>6264.9</v>
       </c>
       <c r="D124" s="3">
-        <v>40574</v>
+        <v>44012</v>
       </c>
       <c r="E124" s="1">
-        <v>1141.52</v>
+        <v>2411.4499999999998</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
-        <v>40542</v>
+        <v>44043</v>
       </c>
       <c r="B125" s="1">
-        <v>1605.5</v>
+        <v>6555.6</v>
       </c>
       <c r="D125" s="3">
-        <v>40543</v>
+        <v>44043</v>
       </c>
       <c r="E125" s="1">
-        <v>1127.33</v>
+        <v>2314.39</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
-        <v>40512</v>
+        <v>44074</v>
       </c>
       <c r="B126" s="1">
-        <v>1441.9</v>
+        <v>6229.2</v>
       </c>
       <c r="D126" s="3">
-        <v>40512</v>
+        <v>44074</v>
       </c>
       <c r="E126" s="1">
-        <v>1078.8</v>
+        <v>2503.59</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
-        <v>40480</v>
+        <v>44104</v>
       </c>
       <c r="B127" s="1">
-        <v>1276.8</v>
+        <v>6773</v>
       </c>
       <c r="D127" s="3">
-        <v>40480</v>
+        <v>44104</v>
       </c>
       <c r="E127" s="1">
-        <v>1016.07</v>
+        <v>2536.14</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A7:B7" xr:uid="{4F9D1D33-8E6D-47D3-BE91-6358D79C86E8}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:B127">
+      <sortCondition ref="A7"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2746,8 +2763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88F9B739-791E-46DC-B2DC-68520CAD7CC0}">
   <dimension ref="A1:B127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2807,962 +2824,962 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>44104</v>
+        <v>40480</v>
       </c>
       <c r="B8" s="1">
-        <v>8032</v>
+        <v>2462.3000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>44074</v>
+        <v>40512</v>
       </c>
       <c r="B9" s="1">
-        <v>8283.6</v>
+        <v>2719.5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>44043</v>
+        <v>40542</v>
       </c>
       <c r="B10" s="1">
-        <v>8051.3</v>
+        <v>2679.2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>44012</v>
+        <v>40574</v>
       </c>
       <c r="B11" s="1">
-        <v>7361.4</v>
+        <v>2589.5</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>43980</v>
+        <v>40602</v>
       </c>
       <c r="B12" s="1">
-        <v>6853</v>
+        <v>2739.6</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>43951</v>
+        <v>40633</v>
       </c>
       <c r="B13" s="1">
-        <v>6910.8</v>
+        <v>2450.3000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>43921</v>
+        <v>40661</v>
       </c>
       <c r="B14" s="1">
-        <v>6401.4</v>
+        <v>2078.6999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>43889</v>
+        <v>40694</v>
       </c>
       <c r="B15" s="1">
-        <v>6566.2</v>
+        <v>1989.5</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>43861</v>
+        <v>40724</v>
       </c>
       <c r="B16" s="1">
-        <v>7665.6</v>
+        <v>1947.2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>43829</v>
+        <v>40753</v>
       </c>
       <c r="B17" s="1">
-        <v>7350.8</v>
+        <v>1790.8</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>43798</v>
+        <v>40786</v>
       </c>
       <c r="B18" s="1">
-        <v>6857.2</v>
+        <v>1531.4</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>43769</v>
+        <v>40816</v>
       </c>
       <c r="B19" s="1">
-        <v>6580.1</v>
+        <v>1397.9</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>43738</v>
+        <v>40847</v>
       </c>
       <c r="B20" s="1">
-        <v>6303.9</v>
+        <v>1560.3</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>43707</v>
+        <v>40877</v>
       </c>
       <c r="B21" s="1">
-        <v>5982.4</v>
+        <v>1272.7</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>43677</v>
+        <v>40907</v>
       </c>
       <c r="B22" s="1">
-        <v>6109.1</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>43644</v>
+        <v>40939</v>
       </c>
       <c r="B23" s="1">
-        <v>5592.3</v>
+        <v>1290.3</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>43616</v>
+        <v>40968</v>
       </c>
       <c r="B24" s="1">
-        <v>5205.1000000000004</v>
+        <v>1611.3</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>43581</v>
+        <v>40998</v>
       </c>
       <c r="B25" s="1">
-        <v>5160.6000000000004</v>
+        <v>1592.1</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>43553</v>
+        <v>41026</v>
       </c>
       <c r="B26" s="1">
-        <v>4599.2</v>
+        <v>1229.5999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>43524</v>
+        <v>41060</v>
       </c>
       <c r="B27" s="1">
-        <v>5266.1</v>
+        <v>981.1</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>43496</v>
+        <v>41089</v>
       </c>
       <c r="B28" s="1">
-        <v>5390.4</v>
+        <v>1049.3</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>43462</v>
+        <v>41121</v>
       </c>
       <c r="B29" s="1">
-        <v>5251.3</v>
+        <v>899.8</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>43434</v>
+        <v>41152</v>
       </c>
       <c r="B30" s="1">
-        <v>5853.8</v>
+        <v>823.2</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>43404</v>
+        <v>41180</v>
       </c>
       <c r="B31" s="1">
-        <v>6053.9</v>
+        <v>869.9</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>43371</v>
+        <v>41213</v>
       </c>
       <c r="B32" s="1">
-        <v>6868.3</v>
+        <v>903</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>43343</v>
+        <v>41243</v>
       </c>
       <c r="B33" s="1">
-        <v>6244.9</v>
+        <v>758.2</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>43312</v>
+        <v>41271</v>
       </c>
       <c r="B34" s="1">
-        <v>5733.3</v>
+        <v>906.8</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>43280</v>
+        <v>41305</v>
       </c>
       <c r="B35" s="1">
-        <v>5572</v>
+        <v>1289.2</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>43251</v>
+        <v>41333</v>
       </c>
       <c r="B36" s="1">
-        <v>5076.2</v>
+        <v>1266.5</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>43217</v>
+        <v>41362</v>
       </c>
       <c r="B37" s="1">
-        <v>5312.3</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>43189</v>
+        <v>41394</v>
       </c>
       <c r="B38" s="1">
-        <v>5062.3999999999996</v>
+        <v>1538.3</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>43159</v>
+        <v>41425</v>
       </c>
       <c r="B39" s="1">
-        <v>5338.3</v>
+        <v>1954.1</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>43131</v>
+        <v>41453</v>
       </c>
       <c r="B40" s="1">
-        <v>5109.7</v>
+        <v>1981.8</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>43098</v>
+        <v>41486</v>
       </c>
       <c r="B41" s="1">
-        <v>4986.1000000000004</v>
+        <v>1972.3</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>43069</v>
+        <v>41516</v>
       </c>
       <c r="B42" s="1">
-        <v>5101.8999999999996</v>
+        <v>1880.7</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>43039</v>
+        <v>41547</v>
       </c>
       <c r="B43" s="1">
-        <v>4328.8999999999996</v>
+        <v>2012.9</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>43007</v>
+        <v>41578</v>
       </c>
       <c r="B44" s="1">
-        <v>4106.2</v>
+        <v>1800.9</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>42978</v>
+        <v>41607</v>
       </c>
       <c r="B45" s="1">
-        <v>4241.3999999999996</v>
+        <v>1791.3</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>42947</v>
+        <v>41638</v>
       </c>
       <c r="B46" s="1">
-        <v>4439.8999999999996</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>42916</v>
+        <v>41670</v>
       </c>
       <c r="B47" s="1">
-        <v>4191.5</v>
+        <v>1560.1</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>42886</v>
+        <v>41698</v>
       </c>
       <c r="B48" s="1">
-        <v>3945</v>
+        <v>1707.8</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>42853</v>
+        <v>41729</v>
       </c>
       <c r="B49" s="1">
-        <v>3676.1</v>
+        <v>1904.8</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>42825</v>
+        <v>41759</v>
       </c>
       <c r="B50" s="1">
-        <v>3682.9</v>
+        <v>1730.9</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>42794</v>
+        <v>41789</v>
       </c>
       <c r="B51" s="1">
-        <v>3391.9</v>
+        <v>1571.5</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>42766</v>
+        <v>41820</v>
       </c>
       <c r="B52" s="1">
-        <v>3338.2</v>
+        <v>1624.6</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>42734</v>
+        <v>41851</v>
       </c>
       <c r="B53" s="1">
-        <v>3193.9</v>
+        <v>1711.6</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>42704</v>
+        <v>41880</v>
       </c>
       <c r="B54" s="1">
-        <v>3206.6</v>
+        <v>1922.1</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>42674</v>
+        <v>41912</v>
       </c>
       <c r="B55" s="1">
-        <v>3277.8</v>
+        <v>1923.1</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>42643</v>
+        <v>41943</v>
       </c>
       <c r="B56" s="1">
-        <v>3211.4</v>
+        <v>2001.3</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>42613</v>
+        <v>41971</v>
       </c>
       <c r="B57" s="1">
-        <v>3233.1</v>
+        <v>2511.3000000000002</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>42580</v>
+        <v>42003</v>
       </c>
       <c r="B58" s="1">
-        <v>3191.2</v>
+        <v>2388.1999999999998</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>42551</v>
+        <v>42034</v>
       </c>
       <c r="B59" s="1">
-        <v>2905.4</v>
+        <v>2679.4</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>42521</v>
+        <v>42062</v>
       </c>
       <c r="B60" s="1">
-        <v>3014.3</v>
+        <v>3298.1</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <v>42488</v>
+        <v>42094</v>
       </c>
       <c r="B61" s="1">
-        <v>2701.2</v>
+        <v>3081.2</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <v>42460</v>
+        <v>42124</v>
       </c>
       <c r="B62" s="1">
-        <v>2813</v>
+        <v>3520.2</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <v>42429</v>
+        <v>42153</v>
       </c>
       <c r="B63" s="1">
-        <v>2313.1</v>
+        <v>3730.3</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
-        <v>42398</v>
+        <v>42185</v>
       </c>
       <c r="B64" s="1">
-        <v>2444.8000000000002</v>
+        <v>3343.5</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <v>42368</v>
+        <v>42216</v>
       </c>
       <c r="B65" s="1">
-        <v>2909</v>
+        <v>3412.5</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
-        <v>42338</v>
+        <v>42247</v>
       </c>
       <c r="B66" s="1">
-        <v>3078.6</v>
+        <v>3054.2</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <v>42307</v>
+        <v>42277</v>
       </c>
       <c r="B67" s="1">
-        <v>3372.2</v>
+        <v>2808.7</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
-        <v>42277</v>
+        <v>42307</v>
       </c>
       <c r="B68" s="1">
-        <v>2808.7</v>
+        <v>3372.2</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <v>42247</v>
+        <v>42338</v>
       </c>
       <c r="B69" s="1">
-        <v>3054.2</v>
+        <v>3078.6</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
-        <v>42216</v>
+        <v>42368</v>
       </c>
       <c r="B70" s="1">
-        <v>3412.5</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
-        <v>42185</v>
+        <v>42398</v>
       </c>
       <c r="B71" s="1">
-        <v>3343.5</v>
+        <v>2444.8000000000002</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
-        <v>42153</v>
+        <v>42429</v>
       </c>
       <c r="B72" s="1">
-        <v>3730.3</v>
+        <v>2313.1</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
-        <v>42124</v>
+        <v>42460</v>
       </c>
       <c r="B73" s="1">
-        <v>3520.2</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
-        <v>42094</v>
+        <v>42488</v>
       </c>
       <c r="B74" s="1">
-        <v>3081.2</v>
+        <v>2701.2</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
-        <v>42062</v>
+        <v>42521</v>
       </c>
       <c r="B75" s="1">
-        <v>3298.1</v>
+        <v>3014.3</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <v>42034</v>
+        <v>42551</v>
       </c>
       <c r="B76" s="1">
-        <v>2679.4</v>
+        <v>2905.4</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
-        <v>42003</v>
+        <v>42580</v>
       </c>
       <c r="B77" s="1">
-        <v>2388.1999999999998</v>
+        <v>3191.2</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
-        <v>41971</v>
+        <v>42613</v>
       </c>
       <c r="B78" s="1">
-        <v>2511.3000000000002</v>
+        <v>3233.1</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
-        <v>41943</v>
+        <v>42643</v>
       </c>
       <c r="B79" s="1">
-        <v>2001.3</v>
+        <v>3211.4</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
-        <v>41912</v>
+        <v>42674</v>
       </c>
       <c r="B80" s="1">
-        <v>1923.1</v>
+        <v>3277.8</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
-        <v>41880</v>
+        <v>42704</v>
       </c>
       <c r="B81" s="1">
-        <v>1922.1</v>
+        <v>3206.6</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
-        <v>41851</v>
+        <v>42734</v>
       </c>
       <c r="B82" s="1">
-        <v>1711.6</v>
+        <v>3193.9</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
-        <v>41820</v>
+        <v>42766</v>
       </c>
       <c r="B83" s="1">
-        <v>1624.6</v>
+        <v>3338.2</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
-        <v>41789</v>
+        <v>42794</v>
       </c>
       <c r="B84" s="1">
-        <v>1571.5</v>
+        <v>3391.9</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
-        <v>41759</v>
+        <v>42825</v>
       </c>
       <c r="B85" s="1">
-        <v>1730.9</v>
+        <v>3682.9</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
-        <v>41729</v>
+        <v>42853</v>
       </c>
       <c r="B86" s="1">
-        <v>1904.8</v>
+        <v>3676.1</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
-        <v>41698</v>
+        <v>42886</v>
       </c>
       <c r="B87" s="1">
-        <v>1707.8</v>
+        <v>3945</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
-        <v>41670</v>
+        <v>42916</v>
       </c>
       <c r="B88" s="1">
-        <v>1560.1</v>
+        <v>4191.5</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
-        <v>41638</v>
+        <v>42947</v>
       </c>
       <c r="B89" s="1">
-        <v>1752</v>
+        <v>4439.8999999999996</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
-        <v>41607</v>
+        <v>42978</v>
       </c>
       <c r="B90" s="1">
-        <v>1791.3</v>
+        <v>4241.3999999999996</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
-        <v>41578</v>
+        <v>43007</v>
       </c>
       <c r="B91" s="1">
-        <v>1800.9</v>
+        <v>4106.2</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
-        <v>41547</v>
+        <v>43039</v>
       </c>
       <c r="B92" s="1">
-        <v>2012.9</v>
+        <v>4328.8999999999996</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
-        <v>41516</v>
+        <v>43069</v>
       </c>
       <c r="B93" s="1">
-        <v>1880.7</v>
+        <v>5101.8999999999996</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
-        <v>41486</v>
+        <v>43098</v>
       </c>
       <c r="B94" s="1">
-        <v>1972.3</v>
+        <v>4986.1000000000004</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
-        <v>41453</v>
+        <v>43131</v>
       </c>
       <c r="B95" s="1">
-        <v>1981.8</v>
+        <v>5109.7</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
-        <v>41425</v>
+        <v>43159</v>
       </c>
       <c r="B96" s="1">
-        <v>1954.1</v>
+        <v>5338.3</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
-        <v>41394</v>
+        <v>43189</v>
       </c>
       <c r="B97" s="1">
-        <v>1538.3</v>
+        <v>5062.3999999999996</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
-        <v>41362</v>
+        <v>43217</v>
       </c>
       <c r="B98" s="1">
-        <v>1566</v>
+        <v>5312.3</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
-        <v>41333</v>
+        <v>43251</v>
       </c>
       <c r="B99" s="1">
-        <v>1266.5</v>
+        <v>5076.2</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
-        <v>41305</v>
+        <v>43280</v>
       </c>
       <c r="B100" s="1">
-        <v>1289.2</v>
+        <v>5572</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
-        <v>41271</v>
+        <v>43312</v>
       </c>
       <c r="B101" s="1">
-        <v>906.8</v>
+        <v>5733.3</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
-        <v>41243</v>
+        <v>43343</v>
       </c>
       <c r="B102" s="1">
-        <v>758.2</v>
+        <v>6244.9</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
-        <v>41213</v>
+        <v>43371</v>
       </c>
       <c r="B103" s="1">
-        <v>903</v>
+        <v>6868.3</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
-        <v>41180</v>
+        <v>43404</v>
       </c>
       <c r="B104" s="1">
-        <v>869.9</v>
+        <v>6053.9</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
-        <v>41152</v>
+        <v>43434</v>
       </c>
       <c r="B105" s="1">
-        <v>823.2</v>
+        <v>5853.8</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
-        <v>41121</v>
+        <v>43462</v>
       </c>
       <c r="B106" s="1">
-        <v>899.8</v>
+        <v>5251.3</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
-        <v>41089</v>
+        <v>43496</v>
       </c>
       <c r="B107" s="1">
-        <v>1049.3</v>
+        <v>5390.4</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
-        <v>41060</v>
+        <v>43524</v>
       </c>
       <c r="B108" s="1">
-        <v>981.1</v>
+        <v>5266.1</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
-        <v>41026</v>
+        <v>43553</v>
       </c>
       <c r="B109" s="1">
-        <v>1229.5999999999999</v>
+        <v>4599.2</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
-        <v>40998</v>
+        <v>43581</v>
       </c>
       <c r="B110" s="1">
-        <v>1592.1</v>
+        <v>5160.6000000000004</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
-        <v>40968</v>
+        <v>43616</v>
       </c>
       <c r="B111" s="1">
-        <v>1611.3</v>
+        <v>5205.1000000000004</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
-        <v>40939</v>
+        <v>43644</v>
       </c>
       <c r="B112" s="1">
-        <v>1290.3</v>
+        <v>5592.3</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
-        <v>40907</v>
+        <v>43677</v>
       </c>
       <c r="B113" s="1">
-        <v>1282</v>
+        <v>6109.1</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
-        <v>40877</v>
+        <v>43707</v>
       </c>
       <c r="B114" s="1">
-        <v>1272.7</v>
+        <v>5982.4</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
-        <v>40847</v>
+        <v>43738</v>
       </c>
       <c r="B115" s="1">
-        <v>1560.3</v>
+        <v>6303.9</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
-        <v>40816</v>
+        <v>43769</v>
       </c>
       <c r="B116" s="1">
-        <v>1397.9</v>
+        <v>6580.1</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
-        <v>40786</v>
+        <v>43798</v>
       </c>
       <c r="B117" s="1">
-        <v>1531.4</v>
+        <v>6857.2</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
-        <v>40753</v>
+        <v>43829</v>
       </c>
       <c r="B118" s="1">
-        <v>1790.8</v>
+        <v>7350.8</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
-        <v>40724</v>
+        <v>43861</v>
       </c>
       <c r="B119" s="1">
-        <v>1947.2</v>
+        <v>7665.6</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
-        <v>40694</v>
+        <v>43889</v>
       </c>
       <c r="B120" s="1">
-        <v>1989.5</v>
+        <v>6566.2</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
-        <v>40661</v>
+        <v>43921</v>
       </c>
       <c r="B121" s="1">
-        <v>2078.6999999999998</v>
+        <v>6401.4</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
-        <v>40633</v>
+        <v>43951</v>
       </c>
       <c r="B122" s="1">
-        <v>2450.3000000000002</v>
+        <v>6910.8</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
-        <v>40602</v>
+        <v>43980</v>
       </c>
       <c r="B123" s="1">
-        <v>2739.6</v>
+        <v>6853</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
-        <v>40574</v>
+        <v>44012</v>
       </c>
       <c r="B124" s="1">
-        <v>2589.5</v>
+        <v>7361.4</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
-        <v>40542</v>
+        <v>44043</v>
       </c>
       <c r="B125" s="1">
-        <v>2679.2</v>
+        <v>8051.3</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
-        <v>40512</v>
+        <v>44074</v>
       </c>
       <c r="B126" s="1">
-        <v>2719.5</v>
+        <v>8283.6</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
-        <v>40480</v>
+        <v>44104</v>
       </c>
       <c r="B127" s="1">
-        <v>2462.3000000000002</v>
+        <v>8032</v>
       </c>
     </row>
   </sheetData>
